--- a/reports/Отчёт за 18.04.2025.xlsx
+++ b/reports/Отчёт за 18.04.2025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Дата</t>
   </si>
@@ -41,19 +41,31 @@
     <t>18.04.2025</t>
   </si>
   <si>
-    <t>АОР</t>
-  </si>
-  <si>
-    <t>пахота зяби</t>
-  </si>
-  <si>
-    <t>многолетние травы</t>
-  </si>
-  <si>
-    <t>предпосевная культура</t>
-  </si>
-  <si>
-    <t>озимая пшеница</t>
+    <t>тск</t>
+  </si>
+  <si>
+    <t>вспашка</t>
+  </si>
+  <si>
+    <t>кукурузу</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Не указано</t>
+  </si>
+  <si>
+    <t>100 выравнивание зяби</t>
+  </si>
+  <si>
+    <t>сою</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>1377</t>
   </si>
 </sst>
 </file>
@@ -157,8 +169,8 @@
   <cols>
     <col min="1" max="1" width="12.5390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="26.74609375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="22.546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.22265625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.4296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="30.78125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="19.60546875" customWidth="true" bestFit="true"/>
@@ -204,17 +216,17 @@
       <c r="D2" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="E2" t="n" s="1">
-        <v>26.0</v>
-      </c>
-      <c r="F2" t="n" s="1">
-        <v>488.0</v>
-      </c>
-      <c r="G2" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="H2" t="n" s="1">
-        <v>-1.0</v>
+      <c r="E2" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -222,25 +234,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s" s="1">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="E3" t="n" s="1">
-        <v>215.0</v>
-      </c>
-      <c r="F3" t="n" s="1">
-        <v>1015.0</v>
-      </c>
-      <c r="G3" t="n" s="1">
-        <v>-1.0</v>
-      </c>
-      <c r="H3" t="n" s="1">
-        <v>-1.0</v>
+        <v>15</v>
+      </c>
+      <c r="E3" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s" s="1">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/reports/Отчёт за 18.04.2025.xlsx
+++ b/reports/Отчёт за 18.04.2025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
   <si>
     <t>Дата</t>
   </si>
@@ -41,31 +41,97 @@
     <t>18.04.2025</t>
   </si>
   <si>
-    <t>тск</t>
-  </si>
-  <si>
-    <t>вспашка</t>
+    <t>уборка свеклы</t>
+  </si>
+  <si>
+    <t>отд17 день 28</t>
+  </si>
+  <si>
+    <t>Не указано</t>
+  </si>
+  <si>
+    <t>15.11.2024</t>
+  </si>
+  <si>
+    <t>полевые работы аор,</t>
   </si>
   <si>
     <t>кукурузу</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Не указано</t>
-  </si>
-  <si>
-    <t>100 выравнивание зяби</t>
+    <t>3957</t>
+  </si>
+  <si>
+    <t>АОР</t>
+  </si>
+  <si>
+    <t>пахота</t>
   </si>
   <si>
     <t>сою</t>
   </si>
   <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>1377</t>
+    <t>201</t>
+  </si>
+  <si>
+    <t>7005</t>
+  </si>
+  <si>
+    <t>кукурузу на силос</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>чизелевание</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>выравнивание зяби зяби</t>
+  </si>
+  <si>
+    <t>сахарную свеклу</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>8194</t>
+  </si>
+  <si>
+    <t>2 следующий выравнивания зяби</t>
+  </si>
+  <si>
+    <t>сах.свеклу</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>840</t>
+  </si>
+  <si>
+    <t>31.03.0025</t>
+  </si>
+  <si>
+    <t>сп</t>
+  </si>
+  <si>
+    <t>коломейцево</t>
+  </si>
+  <si>
+    <t>от</t>
+  </si>
+  <si>
+    <t>48</t>
   </si>
 </sst>
 </file>
@@ -141,13 +207,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyFill="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyAlignment="true" applyFont="true" applyBorder="true" applyNumberFormat="true">
       <alignment horizontal="center" vertical="center"/>
@@ -161,16 +254,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="12.5390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.03125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.22265625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.1640625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="37.9609375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.4609375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.4296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="30.78125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="19.60546875" customWidth="true" bestFit="true"/>
@@ -217,42 +310,276 @@
         <v>11</v>
       </c>
       <c r="E2" t="s" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s" s="1">
         <v>13</v>
       </c>
       <c r="C3" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="1">
         <v>14</v>
       </c>
-      <c r="D3" t="s" s="1">
+      <c r="E3" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s" s="1">
         <v>15</v>
       </c>
-      <c r="E3" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s" s="1">
+      <c r="G3" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="1">
         <v>17</v>
       </c>
-      <c r="G3" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s" s="1">
-        <v>13</v>
+      <c r="D4" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s" s="1">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s" s="1">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s" s="1">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="7">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s" s="1">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="10">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="12">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s" s="1">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
